--- a/biology/Zoologie/Argiolestidae/Argiolestidae.xlsx
+++ b/biology/Zoologie/Argiolestidae/Argiolestidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Argiolestidae sont une famille de libellules du sous-ordre des zygoptères.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Argiolestidae se retrouvent en Australie, en Indonésie, en Papouasie-Nouvelle-Guinée, en Malaisie, en Seychelles, en Gabon, en Cameroun, en Thaïlande et aux Philippines[2]. Ces demoiselles fréquentent les ruisseaux, les marécages, les mares et les tourbières. On trouve les naïades (larves) parmi la végétation submergée[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Argiolestidae se retrouvent en Australie, en Indonésie, en Papouasie-Nouvelle-Guinée, en Malaisie, en Seychelles, en Gabon, en Cameroun, en Thaïlande et aux Philippines. Ces demoiselles fréquentent les ruisseaux, les marécages, les mares et les tourbières. On trouve les naïades (larves) parmi la végétation submergée.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (19 avril 2020)[1] :      
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (19 avril 2020) :      
 genre Allolestes Selys, 1869
 genre Archiargiolestes Kennedy, 1925
 genre Argiolestes Selys, 1862
